--- a/Excel2Json/Test/hero_star.xlsx
+++ b/Excel2Json/Test/hero_star.xlsx
@@ -63,9 +63,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>hero_id</t>
-  </si>
-  <si>
     <t>hp_add</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -123,14 +120,6 @@
   </si>
   <si>
     <t>1002|1002|1002|1002|1002|1002|1002|1002|1002|1004</t>
-  </si>
-  <si>
-    <t>vector&lt;int&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;int&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
@@ -227,10 +216,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>vector&lt;float&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20|30|40|40|50</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -248,6 +233,34 @@
   </si>
   <si>
     <t>magic_resist_add</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d[100]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt;;10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt;;20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;float&gt;;10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -714,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:P4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -735,46 +748,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -782,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -791,19 +804,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
@@ -833,86 +846,86 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+      <c r="A4" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -920,46 +933,46 @@
         <v>102</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
         <v>11102</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -967,46 +980,46 @@
         <v>105</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7">
         <v>11105</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -1014,46 +1027,46 @@
         <v>109</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7">
         <v>11109</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1061,46 +1074,46 @@
         <v>110</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
         <v>11110</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1108,46 +1121,46 @@
         <v>104</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
         <v>11104</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1155,46 +1168,46 @@
         <v>103</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7">
         <v>11103</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
